--- a/Karmozd-sum.xlsx
+++ b/Karmozd-sum.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/GitHub/karmozd-sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632BDC8-750C-094D-B0D2-B0A65AFF4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6AA66-F25C-6C43-A851-62D33D94793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="-20120" windowWidth="28040" windowHeight="16140" xr2:uid="{4DEE318E-4C7C-6A44-B197-2FC704C7AD9D}"/>
+    <workbookView xWindow="-960" yWindow="-20120" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{4DEE318E-4C7C-6A44-B197-2FC704C7AD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
-    <sheet name="IFB" sheetId="1" r:id="rId2"/>
+    <sheet name="IFB-Monthly" sheetId="1" r:id="rId2"/>
     <sheet name="TSE" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="788">
-  <si>
-    <t xml:space="preserve">ارزش معاملات
- (میلیارد ریال) </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="804">
   <si>
     <t>1400-01</t>
   </si>
@@ -2402,6 +2398,57 @@
   </si>
   <si>
     <t>فروش</t>
+  </si>
+  <si>
+    <t>IFB-Stocks-TradeValue(B-Rial)</t>
+  </si>
+  <si>
+    <t>1397-01</t>
+  </si>
+  <si>
+    <t>1397-02</t>
+  </si>
+  <si>
+    <t>1397-03</t>
+  </si>
+  <si>
+    <t>1397-04</t>
+  </si>
+  <si>
+    <t>1397-05</t>
+  </si>
+  <si>
+    <t>1397-06</t>
+  </si>
+  <si>
+    <t>1397-07</t>
+  </si>
+  <si>
+    <t>1397-08</t>
+  </si>
+  <si>
+    <t>1397-09</t>
+  </si>
+  <si>
+    <t>1397-10</t>
+  </si>
+  <si>
+    <t>1397-11</t>
+  </si>
+  <si>
+    <t>1397-12</t>
+  </si>
+  <si>
+    <t>1401-01</t>
+  </si>
+  <si>
+    <t>1401-02</t>
+  </si>
+  <si>
+    <t>1401-03</t>
+  </si>
+  <si>
+    <t>1401-04</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2498,10 +2545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2826,9 +2869,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1C200-19C3-5E4F-866F-090585353D4F}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2840,399 +2883,397 @@
     <col min="23" max="23" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F2" t="s">
         <v>785</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="G2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I2" t="s">
+        <v>786</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F2" t="s">
-        <v>786</v>
-      </c>
-      <c r="G2" t="s">
-        <v>787</v>
-      </c>
-      <c r="H2" t="s">
-        <v>786</v>
-      </c>
-      <c r="I2" t="s">
-        <v>787</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="O2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="S2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="U2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1400</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>862.03550938666331</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>4665.5044118442684</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f>C3+B3</f>
         <v>5527.5399212309312</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4">
         <v>6.0800000000000003E-3</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <f>$D3 * K3</f>
         <v>33.607442721084062</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <f>$D3 * M3</f>
         <v>28.301004396702371</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="7">
         <f>$D3 * O3</f>
         <v>1.3266095810954235</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <f>$D3 * Q3</f>
         <v>1.1055079842461863</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="5">
         <f>$D3 * S3</f>
         <v>2.653219162190847</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="7">
         <f>$D3 * U3</f>
         <v>27.637699606154655</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="7">
         <f>SUM(L3,N3,P3,R3,T3,V3)</f>
         <v>94.631483451473557</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1399</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>2425.46162105553</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1771.5475146458086</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D5" si="0">C4+B4</f>
         <v>4197.0091357013389</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>1129.15490821155</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>1020.01191483944</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>211.53241041711499</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>320.67540349162698</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="4">
         <v>6.0800000000000003E-3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <f t="shared" ref="L4:L5" si="1">$D4 * K4</f>
         <v>25.517815545064142</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:N5" si="2">$D4 * M4</f>
         <v>21.488686774790857</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <f t="shared" ref="P4:P5" si="3">$D4 * O4</f>
         <v>1.0072821925683213</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <f t="shared" ref="R4:R5" si="4">$D4 * Q4</f>
         <v>0.83940182714026779</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <f t="shared" ref="T4:T5" si="5">$D4 * S4</f>
         <v>2.0145643851366426</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="7">
         <f t="shared" ref="V4:V5" si="6">$D4 * U4</f>
         <v>20.985045678506694</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="7">
         <f t="shared" ref="W4:W5" si="7">SUM(L4,N4,P4,R4,T4,V4)</f>
         <v>71.852796403206924</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1398</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>466.36133860917471</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>324.19709658733541</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>790.55843519651012</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>525.23889731931502</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>492.55550038814499</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>145.97361793243201</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>178.657015261602</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="4">
         <v>6.0800000000000003E-3</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>4.8065952859947814</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <f t="shared" si="2"/>
         <v>4.0476591882061319</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f t="shared" si="3"/>
         <v>0.18973402444716242</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <f t="shared" si="4"/>
         <v>0.15811168703930203</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="5">
         <f t="shared" si="5"/>
         <v>0.37946804889432484</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="7">
         <f t="shared" si="6"/>
         <v>3.9527921759825508</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="7">
         <f t="shared" si="7"/>
         <v>13.534360410564254</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B10" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>779</v>
       </c>
-      <c r="B10" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="7">
+        <v>3.1003734000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>780</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3.1003734000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>781</v>
       </c>
       <c r="B12">
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="6">
+        <v>0.60680000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>777</v>
       </c>
-      <c r="B15" s="8">
-        <v>0.60680000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>778</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>780</v>
-      </c>
-      <c r="B19" s="8">
+        <v>779</v>
+      </c>
+      <c r="B19" s="6">
         <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B20">
         <v>0.49</v>
@@ -3258,336 +3299,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70668EB9-07E2-2143-8D2A-6657005E9699}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>788</v>
       </c>
       <c r="B2">
-        <v>2312628.52371031</v>
-      </c>
-      <c r="C2">
-        <f>SUM(B2:B13)</f>
-        <v>46655044.118442684</v>
-      </c>
-      <c r="D2">
-        <f>C2 / (10 ^ 4)</f>
-        <v>4665.5044118442684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4877.0510099579997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>789</v>
       </c>
       <c r="B3">
-        <v>1462940.8387168299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9023.4279739100002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>790</v>
       </c>
       <c r="B4">
-        <v>1392992.7591883601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13759.099593733001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>791</v>
       </c>
       <c r="B5">
-        <v>2314360.7434208598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19931.202777244998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>792</v>
       </c>
       <c r="B6">
-        <v>1485029.24825345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34175.185455145998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
       <c r="B7">
-        <v>4039083.0046194801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50189.722058375999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>794</v>
       </c>
       <c r="B8">
-        <v>4185749.2385924002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84024.769456805996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>795</v>
       </c>
       <c r="B9">
-        <v>3454685.0975983702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49503.652590669997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>796</v>
       </c>
       <c r="B10">
-        <v>4683387.8064766703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44735.733225866003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>797</v>
       </c>
       <c r="B11">
-        <v>6356690.2654067604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47567.761756938002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>798</v>
       </c>
       <c r="B12">
-        <v>7092433.0228239903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42050.508886572999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B13">
+        <v>58738.650159354998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>50259.040428314001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>106816.30099151201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>107799.804009125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>128725.23398530101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>132501.228895515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>151638.10273041899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>157662.67449448799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>83401.274104658005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>202382.40977898901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>240242.01387060201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>358298.08828071202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>424103.58779111598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>7875063.5696352003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B26">
+        <v>506849.70001485699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>580891.16267271701</v>
-      </c>
-      <c r="C14">
-        <f>SUM(B14:B25)</f>
-        <v>17715475.146458086</v>
-      </c>
-      <c r="D14">
-        <f>C14 / (10 ^ 4)</f>
-        <v>1771.5475146458086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B27">
+        <v>951849.59742712602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1128299.95822441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B28">
+        <v>735219.76994483196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>942611.94184196903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B29">
+        <v>1368613.41593064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1845671.5051665099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B30">
+        <v>1106645.33321487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1367120.60366908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B31">
+        <v>667086.80787794595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>960574.69024070003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>845225.21246012102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>1006213.85154648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1718508.51119577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1854983.6138492899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2027058.88641551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>3438315.2091755299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>76707.068094738002</v>
-      </c>
-      <c r="C26">
-        <f>SUM(B26:B37)</f>
-        <v>3241970.9658733541</v>
-      </c>
-      <c r="D26">
-        <f>C26 / (10 ^ 4)</f>
-        <v>324.19709658733541</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>147222.149163731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>147117.947825682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>180982.65806885899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>182271.529877705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>209964.09563833501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
       <c r="B32">
-        <v>260572.85809406501</v>
+        <v>664251.64913113101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>170547.77281741699</v>
+        <v>364992.94539980899</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>332336.09637939802</v>
+        <v>1095561.9930289099</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>380323.209370589</v>
+        <v>994294.20330271299</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>498985.96098699799</v>
+        <v>638997.20561129297</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>654939.61955583701</v>
+        <v>297405.31756383402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>114977.898455038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>93554.077998770998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>205929.42139291699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>345745.73210294201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>327289.50586881803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>686293.64676364197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>312940.91730869899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>287386.250151855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>253025.44021541701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>192969.43925033501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>222981.04082166299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>231888.35175765099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>800</v>
+      </c>
+      <c r="B50">
+        <v>261742.733113789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>801</v>
+      </c>
+      <c r="B51">
+        <v>390809.11287208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>802</v>
+      </c>
+      <c r="B52">
+        <v>381687.54102508002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>803</v>
+      </c>
+      <c r="B53">
+        <v>213602.99011997401</v>
       </c>
     </row>
   </sheetData>
@@ -3616,18 +3761,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="C1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>23097192352734</v>
@@ -3647,7 +3792,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>24440526361319</v>
@@ -3659,7 +3804,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>62192991703775</v>
@@ -3671,7 +3816,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>18249969202963</v>
@@ -3683,7 +3828,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
         <v>24519972684164</v>
@@ -3695,7 +3840,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>39584186148897</v>
@@ -3707,7 +3852,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>27345463506635</v>
@@ -3719,7 +3864,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2">
         <v>33418992252895</v>
@@ -3731,7 +3876,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>38210873721527</v>
@@ -3743,7 +3888,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>39857252621146</v>
@@ -3755,7 +3900,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
         <v>45008652837152</v>
@@ -3767,7 +3912,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>20950461280055</v>
@@ -3779,7 +3924,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>15782440069783</v>
@@ -3791,7 +3936,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>20214362861215</v>
@@ -3803,7 +3948,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>15948259484190</v>
@@ -3815,7 +3960,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>25614847351073</v>
@@ -3827,7 +3972,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>20370357429918</v>
@@ -3839,7 +3984,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>18109250544797</v>
@@ -3851,7 +3996,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2">
         <v>18216479036210</v>
@@ -3863,7 +4008,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <v>16704494382190</v>
@@ -3875,7 +4020,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2">
         <v>10711031994314</v>
@@ -3887,7 +4032,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2">
         <v>14242957857640</v>
@@ -3899,7 +4044,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2">
         <v>20507432390064</v>
@@ -3911,7 +4056,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
         <v>24421758129545</v>
@@ -3923,7 +4068,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2">
         <v>16459782500592</v>
@@ -3935,7 +4080,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2">
         <v>29926814262889</v>
@@ -3947,7 +4092,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2">
         <v>17310305689277</v>
@@ -3959,7 +4104,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2">
         <v>8186816401886</v>
@@ -3971,7 +4116,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2">
         <v>26006548452434</v>
@@ -3983,7 +4128,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2">
         <v>29784003883362</v>
@@ -3995,7 +4140,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2">
         <v>29134526419379</v>
@@ -4007,7 +4152,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2">
         <v>30885676966591</v>
@@ -4019,7 +4164,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2">
         <v>25053668938329</v>
@@ -4031,7 +4176,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2">
         <v>16776792341597</v>
@@ -4043,7 +4188,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2">
         <v>282082210592</v>
@@ -4055,7 +4200,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2">
         <v>26147961989582</v>
@@ -4067,7 +4212,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2">
         <v>16042594833650</v>
@@ -4079,7 +4224,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2">
         <v>21115395781550</v>
@@ -4091,7 +4236,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2">
         <v>18788698276722</v>
@@ -4103,7 +4248,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2">
         <v>21729729215232</v>
@@ -4115,7 +4260,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2">
         <v>19869958284104</v>
@@ -4127,7 +4272,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2">
         <v>17940175811378</v>
@@ -4139,7 +4284,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2">
         <v>16409193957892</v>
@@ -4151,7 +4296,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2">
         <v>15791555283143</v>
@@ -4163,7 +4308,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2">
         <v>17055960890617</v>
@@ -4175,7 +4320,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2">
         <v>17348225730888</v>
@@ -4187,7 +4332,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2">
         <v>22342283949607</v>
@@ -4199,7 +4344,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2">
         <v>21333745008477</v>
@@ -4211,7 +4356,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2">
         <v>58800213787515</v>
@@ -4223,7 +4368,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2">
         <v>16391255257109</v>
@@ -4235,7 +4380,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2">
         <v>19427185360482</v>
@@ -4247,7 +4392,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2">
         <v>14461504172429</v>
@@ -4259,7 +4404,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2">
         <v>15457440120942</v>
@@ -4271,7 +4416,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2">
         <v>17398608226796</v>
@@ -4283,7 +4428,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2">
         <v>28393361268482</v>
@@ -4295,7 +4440,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2">
         <v>25925411617101</v>
@@ -4307,7 +4452,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2">
         <v>28968419338413</v>
@@ -4319,7 +4464,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2">
         <v>27190650966763</v>
@@ -4331,7 +4476,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2">
         <v>29281852982698</v>
@@ -4343,7 +4488,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2">
         <v>23760348202722</v>
@@ -4355,7 +4500,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2">
         <v>20901745520116</v>
@@ -4367,7 +4512,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2">
         <v>20415528349267</v>
@@ -4379,7 +4524,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2">
         <v>22887431179998</v>
@@ -4391,7 +4536,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2">
         <v>19719470951821</v>
@@ -4403,7 +4548,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2">
         <v>16198289940716</v>
@@ -4415,7 +4560,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2">
         <v>30452453655798</v>
@@ -4427,7 +4572,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2">
         <v>24405552661944</v>
@@ -4439,7 +4584,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2">
         <v>18441052980727</v>
@@ -4451,7 +4596,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2">
         <v>22086554215582</v>
@@ -4463,7 +4608,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2">
         <v>22072969365167</v>
@@ -4475,7 +4620,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2">
         <v>21391476004004</v>
@@ -4487,7 +4632,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2">
         <v>20670742986702</v>
@@ -4499,7 +4644,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2">
         <v>17915686602348</v>
@@ -4511,7 +4656,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2">
         <v>19934621755987</v>
@@ -4523,7 +4668,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2">
         <v>23041518332844</v>
@@ -4535,7 +4680,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2">
         <v>20429786805503</v>
@@ -4547,7 +4692,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2">
         <v>20166727815585</v>
@@ -4559,7 +4704,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2">
         <v>24848417581307</v>
@@ -4571,7 +4716,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2">
         <v>26514996300086</v>
@@ -4583,7 +4728,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2">
         <v>27762791394222</v>
@@ -4595,7 +4740,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2">
         <v>27981274914129</v>
@@ -4607,7 +4752,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2">
         <v>32715542073632</v>
@@ -4619,7 +4764,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2">
         <v>32203825785715</v>
@@ -4631,7 +4776,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2">
         <v>52340554949428</v>
@@ -4643,7 +4788,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2">
         <v>34643720343435</v>
@@ -4655,7 +4800,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2">
         <v>28314181818152</v>
@@ -4667,7 +4812,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2">
         <v>32551580025599</v>
@@ -4679,7 +4824,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2">
         <v>45780548020004</v>
@@ -4691,7 +4836,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2">
         <v>30902924265051</v>
@@ -4703,7 +4848,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2">
         <v>39973719065293</v>
@@ -4715,7 +4860,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2">
         <v>41406760346610</v>
@@ -4727,7 +4872,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2">
         <v>45593861801906</v>
@@ -4739,7 +4884,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2">
         <v>60519233707635</v>
@@ -4751,7 +4896,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2">
         <v>36513103316939</v>
@@ -4763,7 +4908,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2">
         <v>27575954433806</v>
@@ -4775,7 +4920,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2">
         <v>24535200701672</v>
@@ -4787,7 +4932,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2">
         <v>24129167852485</v>
@@ -4799,7 +4944,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2">
         <v>31354140766604</v>
@@ -4811,7 +4956,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2">
         <v>28955100589125</v>
@@ -4823,7 +4968,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2">
         <v>27412988741088</v>
@@ -4835,7 +4980,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2">
         <v>28301343701669</v>
@@ -4847,7 +4992,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2">
         <v>26590856957712</v>
@@ -4859,7 +5004,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2">
         <v>45221157123337</v>
@@ -4871,7 +5016,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2">
         <v>31279288988674</v>
@@ -4883,7 +5028,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2">
         <v>39051596841880</v>
@@ -4895,7 +5040,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2">
         <v>36136990111999</v>
@@ -4907,7 +5052,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2">
         <v>35639183822266</v>
@@ -4919,7 +5064,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2">
         <v>34787179135798</v>
@@ -4931,7 +5076,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2">
         <v>39688198771009</v>
@@ -4943,7 +5088,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2">
         <v>38474680813527</v>
@@ -4955,7 +5100,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2">
         <v>33458753463790</v>
@@ -4967,7 +5112,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2">
         <v>35092203128731</v>
@@ -4979,7 +5124,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2">
         <v>40169633729733</v>
@@ -4991,7 +5136,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2">
         <v>46057730532645</v>
@@ -5003,7 +5148,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2">
         <v>41837995192823</v>
@@ -5015,7 +5160,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2">
         <v>55558914527747</v>
@@ -5027,7 +5172,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2">
         <v>58395600210757</v>
@@ -5039,7 +5184,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2">
         <v>46781440678072</v>
@@ -5051,7 +5196,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2">
         <v>38364749842949</v>
@@ -5063,7 +5208,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2">
         <v>36810431701219</v>
@@ -5075,7 +5220,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2">
         <v>47459784507022</v>
@@ -5087,7 +5232,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2">
         <v>55645011992404</v>
@@ -5099,7 +5244,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2">
         <v>44523942699407</v>
@@ -5111,7 +5256,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2">
         <v>33445984071026</v>
@@ -5123,7 +5268,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2">
         <v>41949264454357</v>
@@ -5135,7 +5280,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2">
         <v>62825064957956</v>
@@ -5147,7 +5292,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="2">
         <v>76977674586562</v>
@@ -5159,7 +5304,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2">
         <v>51075939981844</v>
@@ -5171,7 +5316,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="2">
         <v>53529189875644</v>
@@ -5183,7 +5328,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" s="2">
         <v>48978332934473</v>
@@ -5195,7 +5340,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2">
         <v>58201369596919</v>
@@ -5207,7 +5352,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2">
         <v>61942485607471</v>
@@ -5219,7 +5364,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134" s="2">
         <v>65466018151221</v>
@@ -5231,7 +5376,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B135" s="2">
         <v>74755737809605</v>
@@ -5243,7 +5388,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136" s="2">
         <v>72662646042631</v>
@@ -5255,7 +5400,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" s="2">
         <v>71807074797108</v>
@@ -5267,7 +5412,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" s="2">
         <v>73975459616447</v>
@@ -5279,7 +5424,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B139" s="2">
         <v>109482881233623</v>
@@ -5291,7 +5436,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140" s="2">
         <v>88636067636317</v>
@@ -5303,7 +5448,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2">
         <v>111130086650747</v>
@@ -5315,7 +5460,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142" s="2">
         <v>93245810375857</v>
@@ -5327,7 +5472,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="2">
         <v>87688756283311</v>
@@ -5339,7 +5484,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" s="2">
         <v>79727217978368</v>
@@ -5351,7 +5496,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2">
         <v>74542108656379</v>
@@ -5363,7 +5508,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" s="2">
         <v>77396703134312</v>
@@ -5375,7 +5520,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B147" s="2">
         <v>58940873249802</v>
@@ -5387,7 +5532,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B148" s="2">
         <v>73747691569650</v>
@@ -5399,7 +5544,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B149" s="2">
         <v>74690649926249</v>
@@ -5411,7 +5556,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150" s="2">
         <v>65854630674931</v>
@@ -5423,7 +5568,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="2">
         <v>54766536389598</v>
@@ -5435,7 +5580,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2">
         <v>42901298934683</v>
@@ -5447,7 +5592,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B153" s="2">
         <v>49123703329138</v>
@@ -5459,7 +5604,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154" s="2">
         <v>63288358121668</v>
@@ -5471,7 +5616,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B155" s="2">
         <v>42128843198963</v>
@@ -5483,7 +5628,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156" s="2">
         <v>34694246670750</v>
@@ -5495,7 +5640,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B157" s="2">
         <v>53751369991365</v>
@@ -5507,7 +5652,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2">
         <v>50417441414836</v>
@@ -5519,7 +5664,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B159" s="2">
         <v>43886301179070</v>
@@ -5531,7 +5676,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="2">
         <v>42506731861741</v>
@@ -5543,7 +5688,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161" s="2">
         <v>36895045170072</v>
@@ -5555,7 +5700,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B162" s="2">
         <v>38952483979606</v>
@@ -5567,7 +5712,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2">
         <v>49459878717152</v>
@@ -5579,7 +5724,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B164" s="2">
         <v>50672383967380</v>
@@ -5591,7 +5736,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165" s="2">
         <v>59442801779784</v>
@@ -5603,7 +5748,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B166" s="2">
         <v>59315335793771</v>
@@ -5615,7 +5760,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B167" s="2">
         <v>51251487638720</v>
@@ -5627,7 +5772,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168" s="2">
         <v>46799802016496</v>
@@ -5639,7 +5784,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B169" s="2">
         <v>37584259343591</v>
@@ -5651,7 +5796,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B170" s="2">
         <v>45380457534364</v>
@@ -5663,7 +5808,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="2">
         <v>50105780934779</v>
@@ -5675,7 +5820,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B172" s="2">
         <v>40530092189304</v>
@@ -5687,7 +5832,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" s="2">
         <v>35729544205256</v>
@@ -5699,7 +5844,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B174" s="2">
         <v>44773547629772</v>
@@ -5711,7 +5856,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" s="2">
         <v>48944007333663</v>
@@ -5723,7 +5868,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B176" s="2">
         <v>46924293718592</v>
@@ -5735,7 +5880,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B177" s="2">
         <v>51209091435986</v>
@@ -5747,7 +5892,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B178" s="2">
         <v>61146891156321</v>
@@ -5759,7 +5904,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" s="2">
         <v>48932343242144</v>
@@ -5771,7 +5916,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B180" s="2">
         <v>52806249443250</v>
@@ -5783,7 +5928,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B181" s="2">
         <v>37016863119944</v>
@@ -5795,7 +5940,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B182" s="2">
         <v>39679539292882</v>
@@ -5807,7 +5952,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B183" s="2">
         <v>38162642761619</v>
@@ -5819,7 +5964,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B184" s="2">
         <v>36265659396687</v>
@@ -5831,7 +5976,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B185" s="2">
         <v>48629778440307</v>
@@ -5843,7 +5988,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B186" s="2">
         <v>32350243228932</v>
@@ -5855,7 +6000,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B187" s="2">
         <v>34300251189517</v>
@@ -5867,7 +6012,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B188" s="2">
         <v>22696599110473</v>
@@ -5879,7 +6024,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B189" s="2">
         <v>24975409068810</v>
@@ -5891,7 +6036,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B190" s="2">
         <v>52155860616752</v>
@@ -5903,7 +6048,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B191" s="2">
         <v>38399586578140</v>
@@ -5915,7 +6060,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B192" s="2">
         <v>66666330461100</v>
@@ -5927,7 +6072,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193" s="2">
         <v>32433582990445</v>
@@ -5939,7 +6084,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194" s="2">
         <v>31429489737015</v>
@@ -5951,7 +6096,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B195" s="2">
         <v>25545448560629</v>
@@ -5963,7 +6108,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B196" s="2">
         <v>39623596503858</v>
@@ -5975,7 +6120,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B197" s="2">
         <v>35981935528463</v>
@@ -5987,7 +6132,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B198" s="2">
         <v>25621747620422</v>
@@ -5999,7 +6144,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B199" s="2">
         <v>32602734306309</v>
@@ -6011,7 +6156,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B200" s="2">
         <v>17340090119043</v>
@@ -6023,7 +6168,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B201" s="2">
         <v>15955494643746</v>
@@ -6035,7 +6180,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B202" s="2">
         <v>20214826357701</v>
@@ -6047,7 +6192,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B203" s="2">
         <v>22065185061939</v>
@@ -6059,7 +6204,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B204" s="2">
         <v>22985355561597</v>
@@ -6071,7 +6216,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B205" s="2">
         <v>22614757411590</v>
@@ -6083,7 +6228,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B206" s="2">
         <v>26322968546441</v>
@@ -6095,7 +6240,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B207" s="2">
         <v>25371471362477</v>
@@ -6107,7 +6252,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B208" s="2">
         <v>29328097560824</v>
@@ -6119,7 +6264,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B209" s="2">
         <v>27998857266678</v>
@@ -6131,7 +6276,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="2">
         <v>31994069306338</v>
@@ -6143,7 +6288,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B211" s="2">
         <v>24031009569796</v>
@@ -6155,7 +6300,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B212" s="2">
         <v>16796747085948</v>
@@ -6167,7 +6312,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B213" s="2">
         <v>19971158297805</v>
@@ -6179,7 +6324,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B214" s="2">
         <v>11326908386757</v>
@@ -6191,7 +6336,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B215" s="2">
         <v>12663194890319</v>
@@ -6203,7 +6348,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B216" s="2">
         <v>21417224584940</v>
@@ -6215,7 +6360,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B217" s="2">
         <v>29270834616220</v>
@@ -6227,7 +6372,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B218" s="2">
         <v>30996563615660</v>
@@ -6239,7 +6384,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B219" s="2">
         <v>20556627267160</v>
@@ -6251,7 +6396,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B220" s="2">
         <v>13658689902080</v>
@@ -6263,7 +6408,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B221" s="2">
         <v>11816120126710</v>
@@ -6275,7 +6420,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B222" s="2">
         <v>12463367015420</v>
@@ -6287,7 +6432,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B223" s="2">
         <v>25783499649610</v>
@@ -6299,7 +6444,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B224" s="2">
         <v>30508279942740</v>
@@ -6311,7 +6456,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B225" s="2">
         <v>7475996880560</v>
@@ -6323,7 +6468,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226" s="2">
         <v>9961274341620</v>
@@ -6335,7 +6480,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" s="2">
         <v>30015537460620</v>
@@ -6347,7 +6492,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B228" s="2">
         <v>39822752913570</v>
@@ -6359,7 +6504,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B229" s="2">
         <v>20229552833240</v>
@@ -6371,7 +6516,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B230" s="2">
         <v>12231377505020</v>
@@ -6383,7 +6528,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B231" s="2">
         <v>9332675804890</v>
@@ -6395,7 +6540,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B232" s="2">
         <v>15095075696560</v>
@@ -6407,7 +6552,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B233" s="2">
         <v>21586039295740</v>
@@ -6419,7 +6564,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B234" s="2">
         <v>26820406673512</v>
@@ -6431,7 +6576,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B235" s="2">
         <v>13925147373360</v>
@@ -6443,7 +6588,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B236" s="2">
         <v>26657621390518</v>
@@ -6455,7 +6600,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B237" s="2">
         <v>41992450964790</v>
@@ -6467,7 +6612,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B238" s="2">
         <v>209229528805180</v>
@@ -6479,7 +6624,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B239" s="2">
         <v>135107810112360</v>
@@ -6491,7 +6636,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" s="2">
         <v>42416235892730</v>
@@ -6503,7 +6648,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="2">
         <v>177702333291020</v>
@@ -6523,7 +6668,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="2">
         <v>67418936452090</v>
@@ -6535,7 +6680,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="2">
         <v>47846060094550</v>
@@ -6547,7 +6692,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="2">
         <v>52697707843051</v>
@@ -6559,7 +6704,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="2">
         <v>54097012216220</v>
@@ -6571,7 +6716,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B246" s="2">
         <v>37825689197940</v>
@@ -6583,7 +6728,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="2">
         <v>61847130687840</v>
@@ -6595,7 +6740,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="2">
         <v>52188141152124</v>
@@ -6607,7 +6752,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B249" s="2">
         <v>42348415578390</v>
@@ -6619,7 +6764,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="2">
         <v>22602428463220</v>
@@ -6631,7 +6776,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" s="2">
         <v>32581267249530</v>
@@ -6643,7 +6788,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" s="2">
         <v>38266379549780</v>
@@ -6655,7 +6800,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="2">
         <v>34076363115520</v>
@@ -6667,7 +6812,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B254" s="2">
         <v>15113998366170</v>
@@ -6679,7 +6824,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255" s="2">
         <v>53575366990140</v>
@@ -6691,7 +6836,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" s="2">
         <v>50139512082600</v>
@@ -6703,7 +6848,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" s="2">
         <v>45227792136690</v>
@@ -6715,7 +6860,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" s="2">
         <v>19943777611780</v>
@@ -6727,7 +6872,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" s="2">
         <v>19047997165850</v>
@@ -6739,7 +6884,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B260" s="2">
         <v>37997553732120</v>
@@ -6751,7 +6896,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" s="2">
         <v>44646617310120</v>
@@ -6763,7 +6908,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B262" s="2">
         <v>80310365813920</v>
@@ -6775,7 +6920,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B263" s="2">
         <v>59853625888880</v>
@@ -6787,7 +6932,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B264" s="2">
         <v>92063265952300</v>
@@ -6799,7 +6944,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B265" s="2">
         <v>103388794019750</v>
@@ -6811,7 +6956,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" s="2">
         <v>75283325120930</v>
@@ -6823,7 +6968,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" s="2">
         <v>98555767235060</v>
@@ -6835,7 +6980,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B268" s="2">
         <v>58731627910600</v>
@@ -6847,7 +6992,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B269" s="2">
         <v>55262362625320</v>
@@ -6859,7 +7004,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B270" s="2">
         <v>70355431182430</v>
@@ -6871,7 +7016,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B271" s="2">
         <v>92685471792480</v>
@@ -6883,7 +7028,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B272" s="2">
         <v>75566894489200</v>
@@ -6895,7 +7040,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B273" s="2">
         <v>109517534605170</v>
@@ -6907,7 +7052,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" s="2">
         <v>71940119338380</v>
@@ -6919,7 +7064,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B275" s="2">
         <v>86770213356270</v>
@@ -6931,7 +7076,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" s="2">
         <v>77697823393640</v>
@@ -6943,7 +7088,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B277" s="2">
         <v>90066903838790</v>
@@ -6955,7 +7100,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B278" s="2">
         <v>132585118456270</v>
@@ -6967,7 +7112,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B279" s="2">
         <v>63801942904630</v>
@@ -6979,7 +7124,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B280" s="2">
         <v>60746964722770</v>
@@ -6991,7 +7136,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B281" s="2">
         <v>87031290450782</v>
@@ -7003,7 +7148,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B282" s="2">
         <v>32215611162690</v>
@@ -7015,7 +7160,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B283" s="2">
         <v>61023277281410</v>
@@ -7027,7 +7172,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B284" s="2">
         <v>94422768896360</v>
@@ -7039,7 +7184,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B285" s="2">
         <v>81018075537550</v>
@@ -7051,7 +7196,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" s="2">
         <v>103437273637090</v>
@@ -7063,7 +7208,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B287" s="2">
         <v>96246144924850</v>
@@ -7075,7 +7220,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B288" s="2">
         <v>97740146235640</v>
@@ -7087,7 +7232,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B289" s="2">
         <v>101890556102506</v>
@@ -7099,7 +7244,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" s="2">
         <v>98958632879138</v>
@@ -7111,7 +7256,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" s="2">
         <v>95748457618153</v>
@@ -7123,7 +7268,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" s="2">
         <v>100871754181853</v>
@@ -7135,7 +7280,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B293" s="2">
         <v>79013486980217</v>
@@ -7147,7 +7292,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B294" s="2">
         <v>112637133265367</v>
@@ -7159,7 +7304,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B295" s="2">
         <v>124743597495300</v>
@@ -7171,7 +7316,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B296" s="2">
         <v>103406515872683</v>
@@ -7183,7 +7328,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B297" s="2">
         <v>120692188724214</v>
@@ -7195,7 +7340,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B298" s="2">
         <v>119459849933787</v>
@@ -7207,7 +7352,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B299" s="2">
         <v>125059789321336</v>
@@ -7219,7 +7364,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B300" s="2">
         <v>111313817313131</v>
@@ -7231,7 +7376,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B301" s="2">
         <v>99503775215769</v>
@@ -7243,7 +7388,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" s="2">
         <v>104803823613971</v>
@@ -7255,7 +7400,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B303" s="2">
         <v>113185843668257</v>
@@ -7267,7 +7412,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B304" s="2">
         <v>137441686612259</v>
@@ -7279,7 +7424,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B305" s="2">
         <v>62135176107626</v>
@@ -7291,7 +7436,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" s="2">
         <v>138251451126399</v>
@@ -7303,7 +7448,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B307" s="2">
         <v>137828744587735</v>
@@ -7315,7 +7460,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B308" s="2">
         <v>156211257435040</v>
@@ -7327,7 +7472,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B309" s="2">
         <v>141330783913102</v>
@@ -7339,7 +7484,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B310" s="2">
         <v>129597076008996</v>
@@ -7351,7 +7496,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B311" s="2">
         <v>179029352264027</v>
@@ -7363,7 +7508,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B312" s="2">
         <v>142539026657616</v>
@@ -7375,7 +7520,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B313" s="2">
         <v>110864196681178</v>
@@ -7387,7 +7532,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B314" s="2">
         <v>138843269806950</v>
@@ -7399,7 +7544,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B315" s="2">
         <v>140790755932778</v>
@@ -7411,7 +7556,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B316" s="2">
         <v>150378803535831</v>
@@ -7423,7 +7568,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B317" s="2">
         <v>145531612484668</v>
@@ -7435,7 +7580,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B318" s="2">
         <v>152472093365814</v>
@@ -7447,7 +7592,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B319" s="2">
         <v>142437806193817</v>
@@ -7459,7 +7604,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B320" s="2">
         <v>182848257794570</v>
@@ -7471,7 +7616,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B321" s="2">
         <v>104942852455215</v>
@@ -7483,7 +7628,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B322" s="2">
         <v>139605126792590</v>
@@ -7495,7 +7640,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B323" s="2">
         <v>170551745152282</v>
@@ -7507,7 +7652,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B324" s="2">
         <v>80293533304575</v>
@@ -7519,7 +7664,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B325" s="2">
         <v>105165893048229</v>
@@ -7531,7 +7676,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B326" s="2">
         <v>71464633869733</v>
@@ -7543,7 +7688,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B327" s="2">
         <v>111433814303749</v>
@@ -7555,7 +7700,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B328" s="2">
         <v>49536590146489</v>
@@ -7567,7 +7712,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329" s="2">
         <v>66445916800819</v>
@@ -7579,7 +7724,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B330" s="2">
         <v>52191384922681</v>
@@ -7591,7 +7736,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B331" s="2">
         <v>46963962360216</v>
@@ -7603,7 +7748,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B332" s="2">
         <v>13401356139841</v>
@@ -7615,7 +7760,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B333" s="2">
         <v>31882699484590</v>
@@ -7627,7 +7772,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B334" s="2">
         <v>47354852730047</v>
@@ -7639,7 +7784,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B335" s="2">
         <v>44462069321433</v>
@@ -7651,7 +7796,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B336" s="2">
         <v>40192655822366</v>
@@ -7663,7 +7808,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B337" s="2">
         <v>58599674759744</v>
@@ -7675,7 +7820,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B338" s="2">
         <v>61539132400796</v>
@@ -7687,7 +7832,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B339" s="2">
         <v>36834744028149</v>
@@ -7699,7 +7844,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B340" s="2">
         <v>48144136731044</v>
@@ -7711,7 +7856,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B341" s="2">
         <v>26464781807862</v>
@@ -7723,7 +7868,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B342" s="2">
         <v>83957048967750</v>
@@ -7735,7 +7880,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B343" s="2">
         <v>33023167283807</v>
@@ -7747,7 +7892,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B344" s="2">
         <v>24694810609296</v>
@@ -7759,7 +7904,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B345" s="2">
         <v>56336404556888</v>
@@ -7771,7 +7916,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B346" s="2">
         <v>84653494883281</v>
@@ -7783,7 +7928,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B347" s="2">
         <v>97340095516422</v>
@@ -7795,7 +7940,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B348" s="2">
         <v>150544673485794</v>
@@ -7807,7 +7952,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B349" s="2">
         <v>122105398772254</v>
@@ -7819,7 +7964,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B350" s="2">
         <v>68306918632598</v>
@@ -7831,7 +7976,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" s="2">
         <v>78082555227081</v>
@@ -7843,7 +7988,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B352" s="2">
         <v>65723869480004</v>
@@ -7855,7 +8000,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B353" s="2">
         <v>64335621136220</v>
@@ -7867,7 +8012,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B354" s="2">
         <v>124187870909882</v>
@@ -7879,7 +8024,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B355" s="2">
         <v>62534514523263</v>
@@ -7891,7 +8036,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B356" s="2">
         <v>90063697667163</v>
@@ -7903,7 +8048,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B357" s="2">
         <v>79031557658069</v>
@@ -7915,7 +8060,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B358" s="2">
         <v>20072755751774</v>
@@ -7927,7 +8072,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B359" s="2">
         <v>53208998733835</v>
@@ -7939,7 +8084,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B360" s="2">
         <v>72446615532611</v>
@@ -7951,7 +8096,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B361" s="2">
         <v>131157500218084</v>
@@ -7963,7 +8108,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B362" s="2">
         <v>104700944284526</v>
@@ -7975,7 +8120,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B363" s="2">
         <v>45050840187335</v>
@@ -7987,7 +8132,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B364" s="2">
         <v>83189835424500</v>
@@ -7999,7 +8144,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B365" s="2">
         <v>114361607715911</v>
@@ -8011,7 +8156,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B366" s="2">
         <v>155782767569855</v>
@@ -8023,7 +8168,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B367" s="2">
         <v>95444426971541</v>
@@ -8035,7 +8180,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B368" s="2">
         <v>83310564229701</v>
@@ -8047,7 +8192,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B369" s="2">
         <v>86134076715711</v>
@@ -8059,7 +8204,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B370" s="2">
         <v>77101829165857</v>
@@ -8071,7 +8216,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B371" s="2">
         <v>88862196828811</v>
@@ -8083,7 +8228,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B372" s="2">
         <v>15458905811373</v>
@@ -8095,7 +8240,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B373" s="2">
         <v>37811830705647</v>
@@ -8107,7 +8252,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B374" s="2">
         <v>103476946208914</v>
@@ -8119,7 +8264,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B375" s="2">
         <v>110397894680249</v>
@@ -8131,7 +8276,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B376" s="2">
         <v>68720308404934</v>
@@ -8143,7 +8288,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B377" s="2">
         <v>80458544444943</v>
@@ -8155,7 +8300,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B378" s="2">
         <v>229818952792712</v>
@@ -8167,7 +8312,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B379" s="2">
         <v>78960855456404</v>
@@ -8179,7 +8324,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B380" s="2">
         <v>156639078001353</v>
@@ -8191,7 +8336,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B381" s="2">
         <v>126756562846743</v>
@@ -8203,7 +8348,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B382" s="2">
         <v>88550618894776</v>
@@ -8215,7 +8360,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B383" s="2">
         <v>123341999466873</v>
@@ -8227,7 +8372,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B384" s="2">
         <v>51557545752477</v>
@@ -8239,7 +8384,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B385" s="2">
         <v>186589727628221</v>
@@ -8251,7 +8396,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B386" s="2">
         <v>147436293211099</v>
@@ -8263,7 +8408,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B387" s="2">
         <v>75438055615019</v>
@@ -8275,7 +8420,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B388" s="2">
         <v>81169958170834</v>
@@ -8287,7 +8432,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B389" s="2">
         <v>172787077399027</v>
@@ -8299,7 +8444,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B390" s="2">
         <v>110960373739268</v>
@@ -8311,7 +8456,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B391" s="2">
         <v>214199031933129</v>
@@ -8323,7 +8468,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B392" s="2">
         <v>164328855737065</v>
@@ -8335,7 +8480,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B393" s="2">
         <v>187403522492303</v>
@@ -8347,7 +8492,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B394" s="2">
         <v>241978567249123</v>
@@ -8359,7 +8504,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B395" s="2">
         <v>156371622450349</v>
@@ -8371,7 +8516,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B396" s="2">
         <v>193329852161642</v>
@@ -8383,7 +8528,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" s="2">
         <v>173135248905008</v>
@@ -8395,7 +8540,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" s="2">
         <v>159718016279202</v>
@@ -8407,7 +8552,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B399" s="2">
         <v>226973235415219</v>
@@ -8419,7 +8564,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B400" s="2">
         <v>223996068719044</v>
@@ -8431,7 +8576,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B401" s="2">
         <v>150803837851523</v>
@@ -8443,7 +8588,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B402" s="2">
         <v>183208533862491</v>
@@ -8455,7 +8600,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B403" s="2">
         <v>153847550324261</v>
@@ -8467,7 +8612,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B404" s="2">
         <v>208998190937148</v>
@@ -8479,7 +8624,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B405" s="2">
         <v>186786405627705</v>
@@ -8491,7 +8636,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B406" s="2">
         <v>214806781573370</v>
@@ -8503,7 +8648,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B407" s="2">
         <v>124219168063527</v>
@@ -8515,7 +8660,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B408" s="2">
         <v>228707333885661</v>
@@ -8527,7 +8672,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B409" s="2">
         <v>171043223550324</v>
@@ -8539,7 +8684,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B410" s="2">
         <v>193787023706602</v>
@@ -8551,7 +8696,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B411" s="2">
         <v>194800478662510</v>
@@ -8563,7 +8708,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B412" s="2">
         <v>155139531799600</v>
@@ -8575,7 +8720,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B413" s="2">
         <v>221659474114767</v>
@@ -8587,7 +8732,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B414" s="2">
         <v>150740344316612</v>
@@ -8599,7 +8744,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B415" s="2">
         <v>132037174178294</v>
@@ -8611,7 +8756,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B416" s="2">
         <v>143952507760311</v>
@@ -8623,7 +8768,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B417" s="2">
         <v>202561295743010</v>
@@ -8635,7 +8780,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B418" s="2">
         <v>141214233927730</v>
@@ -8647,7 +8792,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B419" s="2">
         <v>99552165330430</v>
@@ -8659,7 +8804,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B420" s="2">
         <v>152210490291240</v>
@@ -8671,7 +8816,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B421" s="2">
         <v>202096472801500</v>
@@ -8683,7 +8828,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B422" s="2">
         <v>89847071272350</v>
@@ -8695,7 +8840,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B423" s="2">
         <v>113480287640910</v>
@@ -8707,7 +8852,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B424" s="2">
         <v>137863140196580</v>
@@ -8719,7 +8864,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B425" s="2">
         <v>120860068715300</v>
@@ -8731,7 +8876,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B426" s="2">
         <v>135662041335460</v>
@@ -8743,7 +8888,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B427" s="2">
         <v>110345207028169</v>
@@ -8755,7 +8900,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B428" s="2">
         <v>112601777494536</v>
@@ -8767,7 +8912,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B429" s="2">
         <v>21650941348620</v>
@@ -8779,7 +8924,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B430" s="2">
         <v>155480938527382</v>
@@ -8791,7 +8936,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B431" s="2">
         <v>96675019784445</v>
@@ -8803,7 +8948,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B432" s="2">
         <v>103277339764801</v>
@@ -8815,7 +8960,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B433" s="2">
         <v>104795907976196</v>
@@ -8827,7 +8972,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B434" s="2">
         <v>134012425424235</v>
@@ -8839,7 +8984,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B435" s="2">
         <v>83699756856592</v>
@@ -8851,7 +8996,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B436" s="2">
         <v>72938211772331</v>
@@ -8863,7 +9008,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B437" s="2">
         <v>96893370266425</v>
@@ -8875,7 +9020,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B438" s="2">
         <v>69477633776584</v>
@@ -8887,7 +9032,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B439" s="2">
         <v>92255395972408</v>
@@ -8899,7 +9044,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B440" s="2">
         <v>58442596585302</v>
@@ -8911,7 +9056,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B441" s="2">
         <v>85177106846710</v>
@@ -8923,7 +9068,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B442" s="2">
         <v>63297140740187</v>
@@ -8935,7 +9080,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B443" s="2">
         <v>81933560284655</v>
@@ -8947,7 +9092,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B444" s="2">
         <v>111729889841483</v>
@@ -8959,7 +9104,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B445" s="2">
         <v>96014534859790</v>
@@ -8971,7 +9116,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B446" s="2">
         <v>122859833006193</v>
@@ -8983,7 +9128,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B447" s="2">
         <v>102795379474072</v>
@@ -8995,7 +9140,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B448" s="2">
         <v>62040901578896</v>
@@ -9007,7 +9152,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B449" s="2">
         <v>177532830237394</v>
@@ -9019,7 +9164,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B450" s="2">
         <v>192114691715823</v>
@@ -9031,7 +9176,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B451" s="2">
         <v>103750832901602</v>
@@ -9043,7 +9188,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B452" s="2">
         <v>110740138318299</v>
@@ -9055,7 +9200,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B453" s="2">
         <v>98079086578084</v>
@@ -9067,7 +9212,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B454" s="2">
         <v>128355654951056</v>
@@ -9079,7 +9224,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B455" s="2">
         <v>162063916590198</v>
@@ -9091,7 +9236,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B456" s="2">
         <v>139518931399428</v>
@@ -9103,7 +9248,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B457" s="2">
         <v>90751385719262</v>
@@ -9115,7 +9260,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B458" s="2">
         <v>65544421357363</v>
@@ -9127,7 +9272,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B459" s="2">
         <v>75142527946662</v>
@@ -9139,7 +9284,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B460" s="2">
         <v>85838093275956</v>
@@ -9151,7 +9296,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B461" s="2">
         <v>92820844976055</v>
@@ -9163,7 +9308,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B462" s="2">
         <v>119442747722872</v>
@@ -9175,7 +9320,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B463" s="2">
         <v>49770731938899</v>
@@ -9187,7 +9332,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B464" s="2">
         <v>72043896339130</v>
@@ -9199,7 +9344,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B465" s="2">
         <v>80044627050626</v>
@@ -9211,7 +9356,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B466" s="2">
         <v>72961939252430</v>
@@ -9223,7 +9368,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B467" s="2">
         <v>100594238077583</v>
@@ -9235,7 +9380,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B468" s="2">
         <v>59914438041738</v>
@@ -9247,7 +9392,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B469" s="2">
         <v>108732386449479</v>
@@ -9259,7 +9404,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B470" s="2">
         <v>51377919367255</v>
@@ -9271,7 +9416,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B471" s="2">
         <v>61127122623097</v>
@@ -9283,7 +9428,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B472" s="2">
         <v>62542802099994</v>
@@ -9295,7 +9440,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B473" s="2">
         <v>55963269218486</v>
@@ -9307,7 +9452,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B474" s="2">
         <v>57601152344844</v>
@@ -9319,7 +9464,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B475" s="2">
         <v>53745024640900</v>
@@ -9331,7 +9476,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B476" s="2">
         <v>58203335300382</v>
@@ -9343,7 +9488,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B477" s="2">
         <v>54268203580590</v>
@@ -9355,7 +9500,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B478" s="2">
         <v>48580097059294</v>
@@ -9367,7 +9512,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B479" s="2">
         <v>53645083281020</v>
@@ -9379,7 +9524,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B480" s="2">
         <v>58221270247332</v>
@@ -9391,7 +9536,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B481" s="2">
         <v>35354280648172</v>
@@ -9403,7 +9548,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B482" s="2">
         <v>35804689871271</v>
@@ -9415,7 +9560,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B483" s="2">
         <v>27830943404271</v>
@@ -9427,7 +9572,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B484" s="2">
         <v>41959599309400</v>
@@ -9447,7 +9592,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B485" s="2">
         <v>37106584706834</v>
@@ -9459,7 +9604,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B486" s="2">
         <v>48524777173321</v>
@@ -9471,7 +9616,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B487" s="2">
         <v>40385513955763</v>
@@ -9483,7 +9628,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B488" s="2">
         <v>38317850323353</v>
@@ -9495,7 +9640,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B489" s="2">
         <v>64870989298778</v>
@@ -9507,7 +9652,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B490" s="2">
         <v>35585413760817</v>
@@ -9519,7 +9664,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B491" s="2">
         <v>34737990936320</v>
@@ -9531,7 +9676,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B492" s="2">
         <v>56895275014896</v>
@@ -9543,7 +9688,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B493" s="2">
         <v>61588861100052</v>
@@ -9555,7 +9700,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B494" s="2">
         <v>51327145412448</v>
@@ -9567,7 +9712,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B495" s="2">
         <v>52068636299662</v>
@@ -9579,7 +9724,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B496" s="2">
         <v>42733322303193</v>
@@ -9591,7 +9736,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B497" s="2">
         <v>40904502463605</v>
@@ -9603,7 +9748,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B498" s="2">
         <v>55334213145644</v>
@@ -9615,7 +9760,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B499" s="2">
         <v>51141639994003</v>
@@ -9627,7 +9772,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B500" s="2">
         <v>47377226600690</v>
@@ -9639,7 +9784,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B501" s="2">
         <v>38068857223433</v>
@@ -9651,7 +9796,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B502" s="2">
         <v>38402074978387</v>
@@ -9663,7 +9808,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B503" s="2">
         <v>33386390155184</v>
@@ -9675,7 +9820,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B504" s="2">
         <v>33087217058579</v>
@@ -9687,7 +9832,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B505" s="2">
         <v>39746868050573</v>
@@ -9699,7 +9844,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B506" s="2">
         <v>44673254169005</v>
@@ -9711,7 +9856,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B507" s="2">
         <v>34171960581276</v>
@@ -9723,7 +9868,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B508" s="2">
         <v>33542568293682</v>
@@ -9735,7 +9880,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B509" s="2">
         <v>41226092986825</v>
@@ -9747,7 +9892,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B510" s="2">
         <v>34895528995684</v>
@@ -9759,7 +9904,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B511" s="2">
         <v>45937344972902</v>
@@ -9771,7 +9916,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B512" s="2">
         <v>40172320677252</v>
@@ -9783,7 +9928,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B513" s="2">
         <v>46279230283824</v>
@@ -9795,7 +9940,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B514" s="2">
         <v>40286331676234</v>
@@ -9807,7 +9952,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B515" s="2">
         <v>35811432259299</v>
@@ -9819,7 +9964,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B516" s="2">
         <v>35046902695197</v>
@@ -9831,7 +9976,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B517" s="2">
         <v>37081935793272</v>
@@ -9843,7 +9988,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B518" s="2">
         <v>31619533914944</v>
@@ -9855,7 +10000,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B519" s="2">
         <v>46008193792134</v>
@@ -9867,7 +10012,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B520" s="2">
         <v>31036240353620</v>
@@ -9879,7 +10024,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B521" s="2">
         <v>30801763727507</v>
@@ -9891,7 +10036,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B522" s="2">
         <v>38992379696184</v>
@@ -9903,7 +10048,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B523" s="2">
         <v>33133909831704</v>
@@ -9915,7 +10060,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B524" s="2">
         <v>33767159371205</v>
@@ -9927,7 +10072,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B525" s="2">
         <v>35994722065798</v>
@@ -9939,7 +10084,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B526" s="2">
         <v>30889331159415</v>
@@ -9951,7 +10096,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B527" s="2">
         <v>32614620350920</v>
@@ -9963,7 +10108,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B528" s="2">
         <v>37331591939995</v>
@@ -9975,7 +10120,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B529" s="2">
         <v>27434812238145</v>
@@ -9987,7 +10132,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B530" s="2">
         <v>8775145398762</v>
@@ -9999,7 +10144,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B531" s="2">
         <v>17281119582127</v>
@@ -10011,7 +10156,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B532" s="2">
         <v>24740686454525</v>
@@ -10023,7 +10168,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B533" s="2">
         <v>30290529390162</v>
@@ -10035,7 +10180,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B534" s="2">
         <v>27277507736532</v>
@@ -10047,7 +10192,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B535" s="2">
         <v>28080907805283</v>
@@ -10059,7 +10204,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B536" s="2">
         <v>31648054074748</v>
@@ -10071,7 +10216,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B537" s="2">
         <v>26372627782624</v>
@@ -10083,7 +10228,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B538" s="2">
         <v>30576701196775</v>
@@ -10095,7 +10240,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B539" s="2">
         <v>28378453159307</v>
@@ -10107,7 +10252,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B540" s="2">
         <v>23116678031358</v>
@@ -10119,7 +10264,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B541" s="2">
         <v>21493802668792</v>
@@ -10131,7 +10276,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B542" s="2">
         <v>32233150839848</v>
@@ -10143,7 +10288,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B543" s="2">
         <v>21437933281880</v>
@@ -10155,7 +10300,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B544" s="2">
         <v>20999288722755</v>
@@ -10167,7 +10312,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B545" s="2">
         <v>21305546491431</v>
@@ -10179,7 +10324,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B546" s="2">
         <v>23260071611753</v>
@@ -10191,7 +10336,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B547" s="2">
         <v>20235081082997</v>
@@ -10203,7 +10348,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B548" s="2">
         <v>28062123207756</v>
@@ -10215,7 +10360,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B549" s="2">
         <v>23572314828971</v>
@@ -10227,7 +10372,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B550" s="2">
         <v>18844122315548</v>
@@ -10239,7 +10384,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B551" s="2">
         <v>25423020828788</v>
@@ -10251,7 +10396,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B552" s="2">
         <v>20677302636962</v>
@@ -10263,7 +10408,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B553" s="2">
         <v>21186654993575</v>
@@ -10275,7 +10420,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B554" s="2">
         <v>19178589156351</v>
@@ -10287,7 +10432,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B555" s="2">
         <v>15255540777144</v>
@@ -10299,7 +10444,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B556" s="2">
         <v>14476797335582</v>
@@ -10311,7 +10456,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B557" s="2">
         <v>20922538550096</v>
@@ -10323,7 +10468,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B558" s="2">
         <v>16287921464637</v>
@@ -10335,7 +10480,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B559" s="2">
         <v>14733988971919</v>
@@ -10347,7 +10492,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B560" s="2">
         <v>13271742038784</v>
@@ -10359,7 +10504,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B561" s="2">
         <v>15257429572375</v>
@@ -10371,7 +10516,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B562" s="2">
         <v>13871675174862</v>
@@ -10383,7 +10528,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B563" s="2">
         <v>13600282089931</v>
@@ -10395,7 +10540,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B564" s="2">
         <v>9893496122477</v>
@@ -10407,7 +10552,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B565" s="2">
         <v>9034717881712</v>
@@ -10419,7 +10564,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B566" s="2">
         <v>8270061567000</v>
@@ -10431,7 +10576,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B567" s="2">
         <v>9309308350251</v>
@@ -10443,7 +10588,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B568" s="2">
         <v>37406529689027</v>
@@ -10455,7 +10600,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B569" s="2">
         <v>12076749253700</v>
@@ -10467,7 +10612,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B570" s="2">
         <v>10914736780455</v>
@@ -10479,7 +10624,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B571" s="2">
         <v>10626242162273</v>
@@ -10491,7 +10636,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B572" s="2">
         <v>14771486979298</v>
@@ -10503,7 +10648,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B573" s="2">
         <v>10570405175881</v>
@@ -10515,7 +10660,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B574" s="2">
         <v>10465799113992</v>
@@ -10527,7 +10672,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B575" s="2">
         <v>11249697709793</v>
@@ -10539,7 +10684,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B576" s="2">
         <v>11553368204328</v>
@@ -10551,7 +10696,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B577" s="2">
         <v>13301806474904</v>
@@ -10563,7 +10708,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B578" s="2">
         <v>13263416155425</v>
@@ -10575,7 +10720,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B579" s="2">
         <v>8944111766204</v>
@@ -10587,7 +10732,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B580" s="2">
         <v>10468159265538</v>
@@ -10599,7 +10744,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B581" s="2">
         <v>8211111132418</v>
@@ -10611,7 +10756,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B582" s="2">
         <v>9491429219541</v>
@@ -10623,7 +10768,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B583" s="2">
         <v>14449264102249</v>
@@ -10635,7 +10780,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B584" s="2">
         <v>12318258265580</v>
@@ -10647,7 +10792,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B585" s="2">
         <v>9170889945006</v>
@@ -10659,7 +10804,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B586" s="2">
         <v>10516780361043</v>
@@ -10671,7 +10816,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B587" s="2">
         <v>11763379920788</v>
@@ -10683,7 +10828,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B588" s="2">
         <v>11808234425088</v>
@@ -10695,7 +10840,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B589" s="2">
         <v>16551556230738</v>
@@ -10707,7 +10852,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B590" s="2">
         <v>18064753564360</v>
@@ -10719,7 +10864,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B591" s="2">
         <v>16943454654495</v>
@@ -10731,7 +10876,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B592" s="2">
         <v>18278908724036</v>
@@ -10743,7 +10888,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B593" s="2">
         <v>18828318071821</v>
@@ -10755,7 +10900,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B594" s="2">
         <v>22523745360235</v>
@@ -10767,7 +10912,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B595" s="2">
         <v>24396034452380</v>
@@ -10779,7 +10924,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B596" s="2">
         <v>26108272480522</v>
@@ -10791,7 +10936,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B597" s="2">
         <v>31605782423719</v>
@@ -10803,7 +10948,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B598" s="2">
         <v>23268321701262</v>
@@ -10815,7 +10960,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B599" s="2">
         <v>28301263581911</v>
@@ -10827,7 +10972,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B600" s="2">
         <v>19254159314772</v>
@@ -10839,7 +10984,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B601" s="2">
         <v>17191685772967</v>
@@ -10851,7 +10996,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B602" s="2">
         <v>20353907274228</v>
@@ -10863,7 +11008,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B603" s="2">
         <v>22020408931764</v>
@@ -10875,7 +11020,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B604" s="2">
         <v>20627331554852</v>
@@ -10887,7 +11032,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B605" s="2">
         <v>14569634949266</v>
@@ -10899,7 +11044,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B606" s="2">
         <v>15742557635192</v>
@@ -10911,7 +11056,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B607" s="2">
         <v>20638123590696</v>
@@ -10923,7 +11068,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B608" s="2">
         <v>22904669338899</v>
@@ -10935,7 +11080,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B609" s="2">
         <v>21599091649315</v>
@@ -10947,7 +11092,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B610" s="2">
         <v>20472617266686</v>
@@ -10959,7 +11104,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B611" s="2">
         <v>15715725874029</v>
@@ -10971,7 +11116,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B612" s="2">
         <v>16673885108108</v>
@@ -10983,7 +11128,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B613" s="2">
         <v>14962702283860</v>
@@ -10995,7 +11140,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B614" s="2">
         <v>12806923548545</v>
@@ -11007,7 +11152,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B615" s="2">
         <v>11652289452511</v>
@@ -11019,7 +11164,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B616" s="2">
         <v>16615035046436</v>
@@ -11031,7 +11176,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B617" s="2">
         <v>13960927773385</v>
@@ -11043,7 +11188,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B618" s="2">
         <v>19418017465967</v>
@@ -11055,7 +11200,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B619" s="2">
         <v>15307517729062</v>
@@ -11067,7 +11212,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B620" s="2">
         <v>16535733683224</v>
@@ -11079,7 +11224,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B621" s="2">
         <v>15168420329099</v>
@@ -11091,7 +11236,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B622" s="2">
         <v>16037259673439</v>
@@ -11103,7 +11248,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B623" s="2">
         <v>13604017957538</v>
@@ -11115,7 +11260,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B624" s="2">
         <v>11254971333963</v>
@@ -11127,7 +11272,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B625" s="2">
         <v>11110729416894</v>
@@ -11139,7 +11284,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B626" s="2">
         <v>21122585402862</v>
@@ -11151,7 +11296,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B627" s="2">
         <v>12270197561327</v>
@@ -11163,7 +11308,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B628" s="2">
         <v>10727068323265</v>
@@ -11175,7 +11320,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B629" s="2">
         <v>10672811534212</v>
@@ -11187,7 +11332,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B630" s="2">
         <v>8951189084131</v>
@@ -11199,7 +11344,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B631" s="2">
         <v>9448209794677</v>
@@ -11211,7 +11356,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B632" s="2">
         <v>9452659691956</v>
@@ -11223,7 +11368,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B633" s="2">
         <v>11769772922668</v>
@@ -11235,7 +11380,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B634" s="2">
         <v>10235688388402</v>
@@ -11247,7 +11392,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B635" s="2">
         <v>9424827590296</v>
@@ -11259,7 +11404,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B636" s="2">
         <v>8194904193142</v>
@@ -11271,7 +11416,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B637" s="2">
         <v>8389854107295</v>
@@ -11283,7 +11428,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B638" s="2">
         <v>5991071611059</v>
@@ -11295,7 +11440,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B639" s="2">
         <v>7132436868929</v>
@@ -11307,7 +11452,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B640" s="2">
         <v>7420964822355</v>
@@ -11319,7 +11464,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B641" s="2">
         <v>6785137719578</v>
@@ -11331,7 +11476,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B642" s="2">
         <v>14247640896190</v>
@@ -11343,7 +11488,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B643" s="2">
         <v>6619173121874</v>
@@ -11355,7 +11500,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B644" s="2">
         <v>8751658891172</v>
@@ -11367,7 +11512,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B645" s="2">
         <v>7561783935651</v>
@@ -11379,7 +11524,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B646" s="2">
         <v>8373497736856</v>
@@ -11391,7 +11536,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B647" s="2">
         <v>10605000720292</v>
@@ -11403,7 +11548,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B648" s="2">
         <v>11166227976451</v>
@@ -11415,7 +11560,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B649" s="2">
         <v>9176545126634</v>
@@ -11427,7 +11572,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B650" s="2">
         <v>9287463147602</v>
@@ -11439,7 +11584,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B651" s="2">
         <v>20012805666304</v>
@@ -11451,7 +11596,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B652" s="2">
         <v>9443835796737</v>
@@ -11463,7 +11608,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B653" s="2">
         <v>16146713329093</v>
@@ -11475,7 +11620,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B654" s="2">
         <v>11832715706118</v>
@@ -11487,7 +11632,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B655" s="2">
         <v>7883783335931</v>
@@ -11499,7 +11644,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B656" s="2">
         <v>9124024858431</v>
@@ -11511,7 +11656,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B657" s="2">
         <v>9808610664434</v>
@@ -11523,7 +11668,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B658" s="2">
         <v>9670006341741</v>
@@ -11535,7 +11680,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B659" s="2">
         <v>8915479780022</v>
@@ -11547,7 +11692,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B660" s="2">
         <v>11129313876186</v>
@@ -11559,7 +11704,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B661" s="2">
         <v>14333415720602</v>
@@ -11571,7 +11716,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B662" s="2">
         <v>12648698167293</v>
@@ -11583,7 +11728,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B663" s="2">
         <v>11026024164175</v>
@@ -11595,7 +11740,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B664" s="2">
         <v>8748911260019</v>
@@ -11607,7 +11752,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B665" s="2">
         <v>8507136009642</v>
@@ -11619,7 +11764,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B666" s="2">
         <v>11001178976362</v>
@@ -11631,7 +11776,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B667" s="2">
         <v>12878034320168</v>
@@ -11643,7 +11788,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B668" s="2">
         <v>16270802903212</v>
@@ -11655,7 +11800,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B669" s="2">
         <v>18012535235337</v>
@@ -11667,7 +11812,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B670" s="2">
         <v>17564706195631</v>
@@ -11679,7 +11824,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B671" s="2">
         <v>16723531882767</v>
@@ -11691,7 +11836,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B672" s="2">
         <v>22074594375999</v>
@@ -11703,7 +11848,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B673" s="2">
         <v>14914153607636</v>
@@ -11715,7 +11860,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B674" s="2">
         <v>13993435498090</v>
@@ -11727,7 +11872,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B675" s="2">
         <v>10567496351752</v>
@@ -11739,7 +11884,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B676" s="2">
         <v>13138046525097</v>
@@ -11751,7 +11896,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B677" s="2">
         <v>11845263660181</v>
@@ -11763,7 +11908,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B678" s="2">
         <v>12012324052386</v>
@@ -11775,7 +11920,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B679" s="2">
         <v>12079930647554</v>
@@ -11787,7 +11932,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B680" s="2">
         <v>16545879837650</v>
@@ -11799,7 +11944,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B681" s="2">
         <v>10731565519783</v>
@@ -11811,7 +11956,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B682" s="2">
         <v>7138989208034</v>
@@ -11823,7 +11968,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B683" s="2">
         <v>8110123310634</v>
@@ -11835,7 +11980,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B684" s="2">
         <v>11638987492893</v>
@@ -11847,7 +11992,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B685" s="2">
         <v>10160814633578</v>
@@ -11859,7 +12004,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B686" s="2">
         <v>10206792525994</v>
@@ -11871,7 +12016,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B687" s="2">
         <v>10582281942157</v>
@@ -11883,7 +12028,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B688" s="2">
         <v>11965421622827</v>
@@ -11895,7 +12040,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B689" s="2">
         <v>13271180082622</v>
@@ -11907,7 +12052,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B690" s="2">
         <v>8696679119593</v>
@@ -11919,7 +12064,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B691" s="2">
         <v>8860290765477</v>
@@ -11931,7 +12076,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B692" s="2">
         <v>10939345334014</v>
@@ -11943,7 +12088,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B693" s="2">
         <v>14462344111466</v>
@@ -11955,7 +12100,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B694" s="2">
         <v>10868900863823</v>
@@ -11967,7 +12112,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B695" s="2">
         <v>14390213305541</v>
@@ -11979,7 +12124,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B696" s="2">
         <v>19211363014783</v>
@@ -11991,7 +12136,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B697" s="2">
         <v>14659708959930</v>
@@ -12003,7 +12148,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B698" s="2">
         <v>15976426897221</v>
@@ -12015,7 +12160,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B699" s="2">
         <v>15003483985415</v>
@@ -12027,7 +12172,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B700" s="2">
         <v>18629251801746</v>
@@ -12039,7 +12184,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B701" s="2">
         <v>14473442111750</v>
@@ -12051,7 +12196,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B702" s="2">
         <v>9363670046612</v>
@@ -12063,7 +12208,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B703" s="2">
         <v>12149050375333</v>
@@ -12075,7 +12220,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B704" s="2">
         <v>8241849005496</v>
@@ -12087,7 +12232,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B705" s="2">
         <v>15667323205323</v>
@@ -12099,7 +12244,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B706" s="2">
         <v>11517985872185</v>
@@ -12111,7 +12256,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B707" s="2">
         <v>18225566455158</v>
@@ -12123,7 +12268,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B708" s="2">
         <v>18110382937977</v>
@@ -12135,7 +12280,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B709" s="2">
         <v>13802521382501</v>
@@ -12147,7 +12292,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B710" s="2">
         <v>9268861151101</v>
@@ -12159,7 +12304,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B711" s="2">
         <v>10281833606148</v>
@@ -12171,7 +12316,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B712" s="2">
         <v>11789587511483</v>
@@ -12183,7 +12328,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B713" s="2">
         <v>9163917549838</v>
@@ -12195,7 +12340,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B714" s="2">
         <v>9417130489488</v>
@@ -12207,7 +12352,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B715" s="2">
         <v>8825711907136</v>
@@ -12219,7 +12364,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B716" s="2">
         <v>5867447160056</v>
@@ -12231,7 +12376,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B717" s="2">
         <v>5755331004809</v>
@@ -12243,7 +12388,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B718" s="2">
         <v>5975646013839</v>
@@ -12255,7 +12400,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B719" s="2">
         <v>5197809498334</v>
@@ -12267,7 +12412,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B720" s="2">
         <v>4023542764121</v>
@@ -12279,7 +12424,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B721" s="2">
         <v>3015216060057</v>
@@ -12291,7 +12436,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C722" t="str">
         <f t="shared" si="11"/>

--- a/Karmozd-sum.xlsx
+++ b/Karmozd-sum.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/GitHub/karmozd-sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6AA66-F25C-6C43-A851-62D33D94793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B577567-8721-1A4B-AED9-E712159596D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="-20120" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{4DEE318E-4C7C-6A44-B197-2FC704C7AD9D}"/>
+    <workbookView xWindow="-960" yWindow="-20120" windowWidth="28040" windowHeight="16140" activeTab="2" xr2:uid="{4DEE318E-4C7C-6A44-B197-2FC704C7AD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="IFB-Monthly" sheetId="1" r:id="rId2"/>
-    <sheet name="TSE" sheetId="2" r:id="rId3"/>
+    <sheet name="IFB-Annual" sheetId="4" r:id="rId3"/>
+    <sheet name="TSE" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="810">
   <si>
     <t>1400-01</t>
   </si>
@@ -2449,6 +2450,24 @@
   </si>
   <si>
     <t>1401-04</t>
+  </si>
+  <si>
+    <t>JYear</t>
+  </si>
+  <si>
+    <t>1397-</t>
+  </si>
+  <si>
+    <t>1398-</t>
+  </si>
+  <si>
+    <t>1399-</t>
+  </si>
+  <si>
+    <t>1400-</t>
+  </si>
+  <si>
+    <t>IFB-Stocks-TradeValue(Hemat)</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2480,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2510,6 +2529,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2534,7 +2560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2552,6 +2578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 3 2" xfId="3" xr:uid="{27E8BF95-53D4-9040-9FF4-DF4CF9BF5330}"/>
@@ -2872,7 +2899,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2998,12 +3025,12 @@
       <c r="B3" s="6">
         <v>862.03550938666331</v>
       </c>
-      <c r="C3" s="6">
-        <v>4665.5044118442684</v>
+      <c r="C3">
+        <v>327.4981722</v>
       </c>
       <c r="D3" s="6">
         <f>C3+B3</f>
-        <v>5527.5399212309312</v>
+        <v>1189.5336815866633</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3016,46 +3043,46 @@
       </c>
       <c r="L3" s="7">
         <f>$D3 * K3</f>
-        <v>33.607442721084062</v>
+        <v>7.2323647840469132</v>
       </c>
       <c r="M3" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
       <c r="N3" s="7">
         <f>$D3 * M3</f>
-        <v>28.301004396702371</v>
+        <v>6.0904124497237166</v>
       </c>
       <c r="O3" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="P3" s="7">
         <f>$D3 * O3</f>
-        <v>1.3266095810954235</v>
+        <v>0.28548808358079919</v>
       </c>
       <c r="Q3" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="R3" s="7">
         <f>$D3 * Q3</f>
-        <v>1.1055079842461863</v>
+        <v>0.23790673631733267</v>
       </c>
       <c r="S3" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="T3" s="5">
         <f>$D3 * S3</f>
-        <v>2.653219162190847</v>
+        <v>0.57097616716159838</v>
       </c>
       <c r="U3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V3" s="7">
         <f>$D3 * U3</f>
-        <v>27.637699606154655</v>
+        <v>5.9476684079333166</v>
       </c>
       <c r="W3" s="7">
         <f>SUM(L3,N3,P3,R3,T3,V3)</f>
-        <v>94.631483451473557</v>
+        <v>20.364816628763677</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3065,12 +3092,12 @@
       <c r="B4" s="6">
         <v>2425.46162105553</v>
       </c>
-      <c r="C4" s="6">
-        <v>1771.5475146458086</v>
+      <c r="C4">
+        <v>939.17679384479595</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D5" si="0">C4+B4</f>
-        <v>4197.0091357013389</v>
+        <v>3364.6384149003261</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
@@ -3091,46 +3118,46 @@
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4:L5" si="1">$D4 * K4</f>
-        <v>25.517815545064142</v>
+        <v>20.457001562593984</v>
       </c>
       <c r="M4" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N5" si="2">$D4 * M4</f>
-        <v>21.488686774790857</v>
+        <v>17.22694868428967</v>
       </c>
       <c r="O4" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P5" si="3">$D4 * O4</f>
-        <v>1.0072821925683213</v>
+        <v>0.80751321957607824</v>
       </c>
       <c r="Q4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="R4" s="7">
         <f t="shared" ref="R4:R5" si="4">$D4 * Q4</f>
-        <v>0.83940182714026779</v>
+        <v>0.67292768298006522</v>
       </c>
       <c r="S4" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" ref="T4:T5" si="5">$D4 * S4</f>
-        <v>2.0145643851366426</v>
+        <v>1.6150264391521565</v>
       </c>
       <c r="U4" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V4" s="7">
         <f t="shared" ref="V4:V5" si="6">$D4 * U4</f>
-        <v>20.985045678506694</v>
+        <v>16.82319207450163</v>
       </c>
       <c r="W4" s="7">
         <f t="shared" ref="W4:W5" si="7">SUM(L4,N4,P4,R4,T4,V4)</f>
-        <v>71.852796403206924</v>
+        <v>57.602609663093588</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3140,12 +3167,12 @@
       <c r="B5" s="6">
         <v>466.36133860917471</v>
       </c>
-      <c r="C5" s="6">
-        <v>324.19709658733541</v>
+      <c r="C5">
+        <v>214.38297593607513</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>790.55843519651012</v>
+        <v>680.74431454524984</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
@@ -3166,46 +3193,46 @@
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
-        <v>4.8065952859947814</v>
+        <v>4.1389254324351192</v>
       </c>
       <c r="M5" s="4">
         <v>5.1200000000000004E-3</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>4.0476591882061319</v>
+        <v>3.4854108904716794</v>
       </c>
       <c r="O5" s="4">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="3"/>
-        <v>0.18973402444716242</v>
+        <v>0.16337863549085996</v>
       </c>
       <c r="Q5" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="4"/>
-        <v>0.15811168703930203</v>
+        <v>0.13614886290904998</v>
       </c>
       <c r="S5" s="4">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="5"/>
-        <v>0.37946804889432484</v>
+        <v>0.32675727098171992</v>
       </c>
       <c r="U5" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="6"/>
-        <v>3.9527921759825508</v>
+        <v>3.4037215727262491</v>
       </c>
       <c r="W5" s="7">
         <f t="shared" si="7"/>
-        <v>13.534360410564254</v>
+        <v>11.654342665014678</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -3301,14 +3328,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70668EB9-07E2-2143-8D2A-6657005E9699}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3742,6 +3769,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF03B052-F2D4-A246-ADFB-9FAC6344CC60}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3274981.7220000001</v>
+      </c>
+      <c r="C2">
+        <v>327.4981722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3">
+        <v>9391767.9384479597</v>
+      </c>
+      <c r="C3">
+        <v>939.17679384479595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4">
+        <v>2143829.7593607511</v>
+      </c>
+      <c r="C4">
+        <v>214.38297593607513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5">
+        <v>458576.76494457602</v>
+      </c>
+      <c r="C5">
+        <v>45.8576764944576</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
+    <sortCondition descending="1" ref="A2:A5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356E6000-CEE8-D247-91E0-0A0DA47010B7}">
   <dimension ref="A1:E722"/>
   <sheetViews>
